--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -777,7 +777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>win</t>
+          <t>result</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
@@ -844,6 +844,4928 @@
       <c r="L1" t="inlineStr">
         <is>
           <t>goal_con</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1093</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Yugoslavia</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Parque Central</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Montevideo</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14 Jul 1930 - 12:45
+</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>lose</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1091</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Estadio Centenario</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Montevideo</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20 Jul 1930 - 13:00
+</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Stade de la Meinau</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">05 Jun 1938 - 17:30
+</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1152</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Czechoslovakia</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Stade de Bordeaux</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12 Jun 1938 - 17:00
+</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>draw</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1153</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Czechoslovakia</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Stade de Bordeaux</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14 Jun 1938 - 18:00
+</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1149</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Orange Vélodrome</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Marseilles</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16 Jun 1938 - 18:00
+</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>lose</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Stade de Bordeaux</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19 Jun 1938 - 17:00
+</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Maracanã - Estádio Jornalista Mário Filho</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Rio De Janeiro</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24 Jun 1950 - 15:00
+</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1188</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pacaembu</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 Jun 1950 - 15:00
+</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>draw</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1191</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Yugoslavia</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Maracanã - Estádio Jornalista Mário Filho</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Rio De Janeiro</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">01 Jul 1950 - 15:00
+</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1189</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Maracanã - Estádio Jornalista Mário Filho</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Rio De Janeiro</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09 Jul 1950 - 15:00
+</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1186</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Maracanã - Estádio Jornalista Mário Filho</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Rio De Janeiro</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13 Jul 1950 - 15:00
+</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1190</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Maracanã - Estádio Jornalista Mário Filho</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Rio De Janeiro</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16 Jul 1950 - 15:00
+</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>lose</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1326</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Rimnersvallen</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Uddevalla</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08 Jun 1958 - 19:00
+</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1339</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Nya Ullevi</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Gothenburg</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11 Jun 1958 - 19:00
+</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>draw</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1344</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Soviet Union</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Nya Ullevi</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Gothenburg</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15 Jun 1958 - 19:00
+</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1345</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Wales</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Nya Ullevi</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Gothenburg</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19 Jun 1958 - 19:00
+</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1340</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Rasunda Stadium</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Solna</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24 Jun 1958 - 19:00
+</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1343</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Rasunda Stadium</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Solna</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">29 Jun 1958 - 15:00
+</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1461</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Estadio Sausalito</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Vina Del Mar</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30 May 1962 - 15:00
+</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1462</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Czechoslovakia</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Estadio Sausalito</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Vina Del Mar</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02 Jun 1962 - 15:00
+</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>draw</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1460</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>7</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Estadio Sausalito</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Vina Del Mar</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">06 Jun 1962 - 15:00
+</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1459</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Estadio Sausalito</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Vina Del Mar</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10 Jun 1962 - 14:30
+</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1458</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>7</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Estadio Nacional Julio Martínez Prádanos</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Santiago De Chile</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13 Jun 1962 - 14:30
+</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1463</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Czechoslovakia</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Estadio Nacional Julio Martínez Prádanos</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Santiago De Chile</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17 Jun 1962 - 14:30
+</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1596</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>8</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Goodison Park</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12 Jul 1966 - 19:30
+</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1597</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>8</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Goodison Park</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15 Jul 1966 - 19:30
+</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>lose</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1598</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>8</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Goodison Park</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19 Jul 1966 - 19:30
+</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>lose</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1770</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Czechoslovakia</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03 Jun 1970 - 16:00
+</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1764</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">07 Jun 1970 - 12:00
+</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1769</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>9</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10 Jun 1970 - 16:00
+</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1768</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>9</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14 Jun 1970 - 12:00
+</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1771</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17 Jun 1970 - 16:00
+</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1765</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>9</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Estadio Azteca</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Mexico City</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21 Jun 1970 - 12:00
+</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Yugoslavia</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Waldstadion</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13 Jun 1974 - 17:00
+</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>draw</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>10</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Waldstadion</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18 Jun 1974 - 19:30
+</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>draw</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Zaire</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Parkstadion</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Gelsenkirchen</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22 Jun 1974 - 16:00
+</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>10</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>German DR</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Niedersachsenstadion</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>HANOVER</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26 Jun 1974 - 19:30
+</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>10</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Niedersachsenstadion</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>HANOVER</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30 Jun 1974 - 16:00
+</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Westfalenstadion</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03 Jul 1974 - 19:30
+</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>lose</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>10</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Olympiastadion</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">06 Jul 1974 - 16:00
+</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>lose</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2253</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>11</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Estadio José María Minella</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Mar Del Plata</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03 Jun 1978 - 13:45
+</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>draw</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2246</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>11</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Estadio José María Minella</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Mar Del Plata</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">07 Jun 1978 - 13:45
+</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>draw</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2215</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>11</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Estadio José María Minella</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Mar Del Plata</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11 Jun 1978 - 13:45
+</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2251</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>11</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>San Martin</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Mendoza</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14 Jun 1978 - 16:45
+</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2196</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>11</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Arroyito - Estadio Dr. Lisandro de la Torre</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Rosario</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18 Jun 1978 - 19:15
+</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>draw</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2252</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>11</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>San Martin</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Mendoza</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21 Jun 1978 - 16:45
+</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2247</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>11</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>El Monumental - Estadio Monumental Antonio Vespuci</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Buenos-Aires</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24 Jun 1978 - 15:00
+</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>12</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Soviet Union</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Ramon Sanchez Pizjuan</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Seville</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14 Jun 1982 - 21:00
+</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>790</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>12</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Benito Villamarin</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Seville</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18 Jun 1982 - 21:00
+</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>12</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Benito Villamarin</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Seville</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23 Jun 1982 - 21:00
+</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>12</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Sarria</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02 Jul 1982 - 17:15
+</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>12</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Sarria</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">05 Jul 1982 - 17:15
+</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>lose</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>12</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Sarria</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02 Jul 1982 - 17:15
+</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>12</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Sarria</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">05 Jul 1982 - 17:15
+</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>lose</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>13</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">01 Jun 1986 - 12:00
+</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>13</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">06 Jun 1986 - 12:00
+</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>13</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Northern Ireland</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12 Jun 1986 - 12:00
+</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>13</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16 Jun 1986 - 12:00
+</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>13</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21 Jun 1986 - 12:00
+</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>draw</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>14</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Juventus Stadium</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Turin</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10 Jun 1990 - 21:00
+</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>14</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Juventus Stadium</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Turin</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16 Jun 1990 - 17:00
+</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>14</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Juventus Stadium</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Turin</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20 Jun 1990 - 21:00
+</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>14</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Juventus Stadium</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Turin</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24 Jun 1990 - 17:00
+</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>lose</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>3057</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>15</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Stanford Stadium</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20 Jun 1994 - 16:00
+</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>3067</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>15</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Stanford Stadium</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24 Jun 1994 - 16:00
+</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>3080</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>15</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Pontiac Silverdome</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 Jun 1994 - 16:00
+</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>draw</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>3090</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>15</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Stanford Stadium</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">04 Jul 1994 - 12:30
+</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>3098</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>15</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Cotton Bowl</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09 Jul 1994 - 14:30
+</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>3099</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>15</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Rose Bowl</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Pasadena</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13 Jul 1994 - 16:30
+</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>3104</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>15</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Rose Bowl</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Pasadena</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17 Jul 1994 - 12:30
+</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>draw</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>16</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Stade de France</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Saint-Denis</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10 Jun 1998 - 17:30
+</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>8742</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>16</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Stade de la Beaujoire</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16 Jun 1998 - 21:00
+</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>8759</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>16</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Orange Vélodrome</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Marseilles</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23 Jun 1998 - 21:00
+</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>lose</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>8773</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>16</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Parc des Princes</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">27 Jun 1998 - 21:00
+</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>8782</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>16</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Stade de la Beaujoire</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03 Jul 1998 - 21:00
+</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>8785</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>16</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Orange Vélodrome</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Marseilles</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">07 Jul 1998 - 21:00
+</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>draw</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>8788</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>16</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Stade de France</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Saint-Denis</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12 Jul 1998 - 21:00
+</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>lose</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>43950010</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>17</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Munsu Football Stadium</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Ulsan</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03 Jun 2002 - 18:00
+</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>43950026</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>17</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>China PR</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Jeju World Cup Stadium</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Seogwipo</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08 Jun 2002 - 20:30
+</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>43950041</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>17</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Suwon World Cup Stadium</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Suwon</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13 Jun 2002 - 15:30
+</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>43950054</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>17</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Home's Stadium</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Kobe</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17 Jun 2002 - 20:30
+</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>43950057</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>17</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Shizuoka Stadium Ecopa</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Shizuoka</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21 Jun 2002 - 15:30
+</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>43950062</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>17</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Saitama Stadium 2002</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Saitama</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26 Jun 2002 - 20:30
+</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>43950064</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>17</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>International Stadium Yokohama</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Yokohama</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30 Jun 2002 - 20:00
+</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>97410011</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>18</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Olympiastadion</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13 Jun 2006 - 21:00
+</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>97410027</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>18</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Allianz Arena</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18 Jun 2006 - 18:00
+</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>97410043</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>18</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Signal-Iduna-Park</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22 Jun 2006 - 21:00
+</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>97410055</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>18</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Signal-Iduna-Park</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">27 Jun 2006 - 17:00
+</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>97410060</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>18</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Commerzbank Arena</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Frankfurt/Main</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">01 Jul 2006 - 21:00
+</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>lose</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>300061490</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>19</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Korea DPR</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Ellis Park Stadium</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15 Jun 2010 - 20:30
+</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>300061488</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>19</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Côte d'Ivoire</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>FNB Stadium</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20 Jun 2010 - 20:30
+</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>300111111</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>19</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Durban Stadium</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Durban</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25 Jun 2010 - 16:00
+</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>draw</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>300061500</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>19</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Ellis Park Stadium</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Johannesburg</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 Jun 2010 - 20:30
+</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>300061507</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>19</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Port Elizabeth Stadium</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Port Elizabeth</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02 Jul 2010 - 16:00
+</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>lose</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>300186456</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>20</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Arena Corinthians</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12 Jun 2014 - 17:00
+</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>300186509</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>20</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Estadio Castelao</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17 Jun 2014 - 16:00
+</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>draw</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>300186472</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>20</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Estadio Nacional</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Brasilia</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23 Jun 2014 - 17:00
+</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>300186487</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>20</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Estadio Mineirao</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 Jun 2014 - 13:00
+</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>draw</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>300186461</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>20</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Estadio Castelao</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">04 Jul 2014 - 17:00
+</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>300186474</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>20</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Estadio Mineirao</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08 Jul 2014 - 17:00
+</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>lose</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>300186502</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>20</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Estadio Nacional</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Brasilia</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12 Jul 2014 - 17:00
+</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>lose</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>300331525</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>21</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Rostov Arena</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Rostov-On-Don</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17 Jun 2018 - 21:00
+</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>draw</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>300331540</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>21</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Saint Petersburg Stadium</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>St. Petersburg</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22 Jun 2018 - 15:00
+</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>300331521</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>21</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Spartak Stadium</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">27 Jun 2018 - 21:00
+</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>300331535</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>21</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Samara Arena</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Samara</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02 Jul 2018 - 18:00
+</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>300331538</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>21</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Kazan Arena</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Kazan</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">06 Jul 2018 - 21:00
+</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>lose</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -788,7 +788,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>game_id</t>
+          <t>match_id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -861,6 +861,11 @@
           <t>Yugoslavia</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Group Matches - Group 2</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>Parque Central</t>
@@ -907,6 +912,11 @@
           <t>Bolivia</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Group Matches - Group 2</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>Estadio Centenario</t>
@@ -953,6 +963,11 @@
           <t>Poland</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1st Round</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>Stade de la Meinau</t>
@@ -999,6 +1014,11 @@
           <t>Czechoslovakia</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Quarter Finals</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>Stade de Bordeaux</t>
@@ -1045,6 +1065,11 @@
           <t>Czechoslovakia</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Quarter Finals</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>Stade de Bordeaux</t>
@@ -1091,6 +1116,11 @@
           <t>Italy</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Semifinals</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>Orange Vélodrome</t>
@@ -1137,6 +1167,11 @@
           <t>Sweden</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Match for 3rd place</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>Stade de Bordeaux</t>
@@ -1183,6 +1218,11 @@
           <t>Mexico</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Group Matches - Group 1</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>Maracanã - Estádio Jornalista Mário Filho</t>
@@ -1229,6 +1269,11 @@
           <t>Switzerland</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Group Matches - Group 1</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>Pacaembu</t>
@@ -1275,6 +1320,11 @@
           <t>Yugoslavia</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Group Matches - Group 1</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>Maracanã - Estádio Jornalista Mário Filho</t>
@@ -1321,6 +1371,11 @@
           <t>Sweden</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Final Round</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>Maracanã - Estádio Jornalista Mário Filho</t>
@@ -1367,6 +1422,11 @@
           <t>Spain</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Final Round</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>Maracanã - Estádio Jornalista Mário Filho</t>
@@ -1413,6 +1473,11 @@
           <t>Uruguay</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Final Round</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>Maracanã - Estádio Jornalista Mário Filho</t>
@@ -1459,6 +1524,11 @@
           <t>Austria</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Group Matches - Group 4</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>Rimnersvallen</t>
@@ -1505,6 +1575,11 @@
           <t>England</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Group Matches - Group 4</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>Nya Ullevi</t>
@@ -1551,6 +1626,11 @@
           <t>Soviet Union</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Group Matches - Group 4</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>Nya Ullevi</t>
@@ -1597,6 +1677,11 @@
           <t>Wales</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Quarter Finals</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
           <t>Nya Ullevi</t>
@@ -1643,6 +1728,11 @@
           <t>France</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Semifinals</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>Rasunda Stadium</t>
@@ -1689,6 +1779,11 @@
           <t>Sweden</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>Rasunda Stadium</t>
@@ -1735,6 +1830,11 @@
           <t>Mexico</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Group Matches - Group 3</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>Estadio Sausalito</t>
@@ -1781,6 +1881,11 @@
           <t>Czechoslovakia</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Group Matches - Group 3</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>Estadio Sausalito</t>
@@ -1827,6 +1932,11 @@
           <t>Spain</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Group Matches - Group 3</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>Estadio Sausalito</t>
@@ -1873,6 +1983,11 @@
           <t>England</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Quarter Finals</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
           <t>Estadio Sausalito</t>
@@ -1919,6 +2034,11 @@
           <t>Chile</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Semifinals</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>Estadio Nacional Julio Martínez Prádanos</t>
@@ -1965,6 +2085,11 @@
           <t>Czechoslovakia</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
           <t>Estadio Nacional Julio Martínez Prádanos</t>
@@ -2011,6 +2136,11 @@
           <t>Bulgaria</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Group Matches - Group 3</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
           <t>Goodison Park</t>
@@ -2057,6 +2187,11 @@
           <t>Hungary</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Group Matches - Group 3</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
           <t>Goodison Park</t>
@@ -2103,6 +2238,11 @@
           <t>Portugal</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Group Matches - Group 3</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
           <t>Goodison Park</t>
@@ -2149,6 +2289,11 @@
           <t>Czechoslovakia</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Group Matches - Group 3</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
           <t>Jalisco</t>
@@ -2195,6 +2340,11 @@
           <t>England</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Group Matches - Group 3</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
           <t>Jalisco</t>
@@ -2241,6 +2391,11 @@
           <t>Romania</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Group Matches - Group 3</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>Jalisco</t>
@@ -2287,6 +2442,11 @@
           <t>Peru</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Quarter Finals</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
           <t>Jalisco</t>
@@ -2333,6 +2493,11 @@
           <t>Uruguay</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Semifinals</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
           <t>Jalisco</t>
@@ -2379,6 +2544,11 @@
           <t>Italy</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
           <t>Estadio Azteca</t>
@@ -2425,6 +2595,11 @@
           <t>Yugoslavia</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Group Matches - Group 2</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
           <t>Waldstadion</t>
@@ -2471,6 +2646,11 @@
           <t>Scotland</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Group Matches - Group 2</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
           <t>Waldstadion</t>
@@ -2517,6 +2697,11 @@
           <t>Zaire</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Group Matches - Group 2</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
           <t>Parkstadion</t>
@@ -2563,6 +2748,11 @@
           <t>German DR</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Second Round - Group A</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
           <t>Niedersachsenstadion</t>
@@ -2609,6 +2799,11 @@
           <t>Argentina</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Second Round - Group A</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
           <t>Niedersachsenstadion</t>
@@ -2655,6 +2850,11 @@
           <t>Netherlands</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Second Round - Group A</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
           <t>Westfalenstadion</t>
@@ -2701,6 +2901,11 @@
           <t>Poland</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Match for 3rd place</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
           <t>Olympiastadion</t>
@@ -2747,6 +2952,11 @@
           <t>Sweden</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Group Matches - Group 3</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
           <t>Estadio José María Minella</t>
@@ -2793,6 +3003,11 @@
           <t>Spain</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Group Matches - Group 3</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
           <t>Estadio José María Minella</t>
@@ -2839,6 +3054,11 @@
           <t>Austria</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Group Matches - Group 3</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
           <t>Estadio José María Minella</t>
@@ -2885,6 +3105,11 @@
           <t>Peru</t>
         </is>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Second Round - Group B</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
           <t>San Martin</t>
@@ -2931,6 +3156,11 @@
           <t>Argentina</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Second Round - Group B</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr">
         <is>
           <t>Arroyito - Estadio Dr. Lisandro de la Torre</t>
@@ -2977,6 +3207,11 @@
           <t>Poland</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Second Round - Group B</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
           <t>San Martin</t>
@@ -3023,6 +3258,11 @@
           <t>Italy</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Match for 3rd place</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
           <t>El Monumental - Estadio Monumental Antonio Vespuci</t>
@@ -3069,6 +3309,11 @@
           <t>Soviet Union</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Group Matches - Group 6</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
           <t>Ramon Sanchez Pizjuan</t>
@@ -3115,6 +3360,11 @@
           <t>Scotland</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Group Matches - Group 6</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr">
         <is>
           <t>Benito Villamarin</t>
@@ -3161,6 +3411,11 @@
           <t>New Zealand</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Group Matches - Group 6</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
           <t>Benito Villamarin</t>
@@ -3207,6 +3462,11 @@
           <t>Argentina</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Second Round - Group 3</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
           <t>Sarria</t>
@@ -3253,6 +3513,11 @@
           <t>Italy</t>
         </is>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Second Round - Group 3</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr">
         <is>
           <t>Sarria</t>
@@ -3299,6 +3564,11 @@
           <t>Argentina</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Second Round - Group 3</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
           <t>Sarria</t>
@@ -3345,6 +3615,11 @@
           <t>Italy</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Second Round - Group 3</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr">
         <is>
           <t>Sarria</t>
@@ -3391,6 +3666,11 @@
           <t>Spain</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Group Matches - Group D</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr">
         <is>
           <t>Jalisco</t>
@@ -3437,6 +3717,11 @@
           <t>Algeria</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Group Matches - Group D</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
           <t>Jalisco</t>
@@ -3483,6 +3768,11 @@
           <t>Northern Ireland</t>
         </is>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Group Matches - Group D</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr">
         <is>
           <t>Jalisco</t>
@@ -3529,6 +3819,11 @@
           <t>Poland</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Round of sixteen</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr">
         <is>
           <t>Jalisco</t>
@@ -3575,6 +3870,11 @@
           <t>France</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Quarter Finals</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr">
         <is>
           <t>Jalisco</t>
@@ -3621,6 +3921,11 @@
           <t>Sweden</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Group Matches - Group C</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr">
         <is>
           <t>Juventus Stadium</t>
@@ -3667,6 +3972,11 @@
           <t>Costa Rica</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Group Matches - Group C</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr">
         <is>
           <t>Juventus Stadium</t>
@@ -3713,6 +4023,11 @@
           <t>Scotland</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Group Matches - Group C</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr">
         <is>
           <t>Juventus Stadium</t>
@@ -3759,6 +4074,11 @@
           <t>Argentina</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Round of sixteen</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr">
         <is>
           <t>Juventus Stadium</t>
@@ -3805,6 +4125,11 @@
           <t>Russia</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Group Matches - Group B</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr">
         <is>
           <t>Stanford Stadium</t>
@@ -3851,6 +4176,11 @@
           <t>Cameroon</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Group Matches - Group B</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr">
         <is>
           <t>Stanford Stadium</t>
@@ -3897,6 +4227,11 @@
           <t>Sweden</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Group Matches - Group B</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
         <is>
           <t>Pontiac Silverdome</t>
@@ -3943,6 +4278,11 @@
           <t>USA</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Round of sixteen</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr">
         <is>
           <t>Stanford Stadium</t>
@@ -3989,6 +4329,11 @@
           <t>Netherlands</t>
         </is>
       </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Quarter Finals</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr">
         <is>
           <t>Cotton Bowl</t>
@@ -4035,6 +4380,11 @@
           <t>Sweden</t>
         </is>
       </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Semifinals</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr">
         <is>
           <t>Rose Bowl</t>
@@ -4081,6 +4431,11 @@
           <t>Italy</t>
         </is>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr">
         <is>
           <t>Rose Bowl</t>
@@ -4127,6 +4482,11 @@
           <t>Scotland</t>
         </is>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Group Matches - Group A</t>
+        </is>
+      </c>
       <c r="G73" t="inlineStr">
         <is>
           <t>Stade de France</t>
@@ -4173,6 +4533,11 @@
           <t>Morocco</t>
         </is>
       </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Group Matches - Group A</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr">
         <is>
           <t>Stade de la Beaujoire</t>
@@ -4219,6 +4584,11 @@
           <t>Norway</t>
         </is>
       </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Group Matches - Group A</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr">
         <is>
           <t>Orange Vélodrome</t>
@@ -4265,6 +4635,11 @@
           <t>Chile</t>
         </is>
       </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Round of sixteen</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr">
         <is>
           <t>Parc des Princes</t>
@@ -4311,6 +4686,11 @@
           <t>Denmark</t>
         </is>
       </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Quarter Finals</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr">
         <is>
           <t>Stade de la Beaujoire</t>
@@ -4357,6 +4737,11 @@
           <t>Netherlands</t>
         </is>
       </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Semifinals</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr">
         <is>
           <t>Orange Vélodrome</t>
@@ -4403,6 +4788,11 @@
           <t>France</t>
         </is>
       </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr">
         <is>
           <t>Stade de France</t>
@@ -4449,6 +4839,11 @@
           <t>Turkey</t>
         </is>
       </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Group Stage - Group C</t>
+        </is>
+      </c>
       <c r="G80" t="inlineStr">
         <is>
           <t>Munsu Football Stadium</t>
@@ -4495,6 +4890,11 @@
           <t>China PR</t>
         </is>
       </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Group Stage - Group C</t>
+        </is>
+      </c>
       <c r="G81" t="inlineStr">
         <is>
           <t>Jeju World Cup Stadium</t>
@@ -4541,6 +4941,11 @@
           <t>Costa Rica</t>
         </is>
       </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Group Stage - Group C</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr">
         <is>
           <t>Suwon World Cup Stadium</t>
@@ -4587,6 +4992,11 @@
           <t>Belgium</t>
         </is>
       </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Round of sixteen</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr">
         <is>
           <t>Home's Stadium</t>
@@ -4633,6 +5043,11 @@
           <t>England</t>
         </is>
       </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Quarterfinals</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr">
         <is>
           <t>Shizuoka Stadium Ecopa</t>
@@ -4679,6 +5094,11 @@
           <t>Turkey</t>
         </is>
       </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Semifinals</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr">
         <is>
           <t>Saitama Stadium 2002</t>
@@ -4725,6 +5145,11 @@
           <t>Germany</t>
         </is>
       </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr">
         <is>
           <t>International Stadium Yokohama</t>
@@ -4771,6 +5196,11 @@
           <t>Croatia</t>
         </is>
       </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>First stage - Group F</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr">
         <is>
           <t>Olympiastadion</t>
@@ -4817,6 +5247,11 @@
           <t>Australia</t>
         </is>
       </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>First stage - Group F</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr">
         <is>
           <t>Allianz Arena</t>
@@ -4863,6 +5298,11 @@
           <t>Japan</t>
         </is>
       </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>First stage - Group F</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr">
         <is>
           <t>Signal-Iduna-Park</t>
@@ -4909,6 +5349,11 @@
           <t>Ghana</t>
         </is>
       </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Round of 16</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr">
         <is>
           <t>Signal-Iduna-Park</t>
@@ -4955,6 +5400,11 @@
           <t>France</t>
         </is>
       </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Quarter-finals</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr">
         <is>
           <t>Commerzbank Arena</t>
@@ -5001,6 +5451,11 @@
           <t>Korea DPR</t>
         </is>
       </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>First stage - Group G</t>
+        </is>
+      </c>
       <c r="G92" t="inlineStr">
         <is>
           <t>Ellis Park Stadium</t>
@@ -5047,6 +5502,11 @@
           <t>Côte d'Ivoire</t>
         </is>
       </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>First stage - Group G</t>
+        </is>
+      </c>
       <c r="G93" t="inlineStr">
         <is>
           <t>FNB Stadium</t>
@@ -5093,6 +5553,11 @@
           <t>Portugal</t>
         </is>
       </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>First stage - Group G</t>
+        </is>
+      </c>
       <c r="G94" t="inlineStr">
         <is>
           <t>Durban Stadium</t>
@@ -5139,6 +5604,11 @@
           <t>Chile</t>
         </is>
       </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Round of 16</t>
+        </is>
+      </c>
       <c r="G95" t="inlineStr">
         <is>
           <t>Ellis Park Stadium</t>
@@ -5185,6 +5655,11 @@
           <t>Netherlands</t>
         </is>
       </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Quarter-final</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr">
         <is>
           <t>Port Elizabeth Stadium</t>
@@ -5231,6 +5706,11 @@
           <t>Croatia</t>
         </is>
       </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>First stage - Group A</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr">
         <is>
           <t>Arena Corinthians</t>
@@ -5277,6 +5757,11 @@
           <t>Mexico</t>
         </is>
       </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>First stage - Group A</t>
+        </is>
+      </c>
       <c r="G98" t="inlineStr">
         <is>
           <t>Estadio Castelao</t>
@@ -5323,6 +5808,11 @@
           <t>Cameroon</t>
         </is>
       </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>First stage - Group A</t>
+        </is>
+      </c>
       <c r="G99" t="inlineStr">
         <is>
           <t>Estadio Nacional</t>
@@ -5369,6 +5859,11 @@
           <t>Chile</t>
         </is>
       </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Round of 16</t>
+        </is>
+      </c>
       <c r="G100" t="inlineStr">
         <is>
           <t>Estadio Mineirao</t>
@@ -5415,6 +5910,11 @@
           <t>Colombia</t>
         </is>
       </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Quarter-final</t>
+        </is>
+      </c>
       <c r="G101" t="inlineStr">
         <is>
           <t>Estadio Castelao</t>
@@ -5461,6 +5961,11 @@
           <t>Germany</t>
         </is>
       </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Semi-final</t>
+        </is>
+      </c>
       <c r="G102" t="inlineStr">
         <is>
           <t>Estadio Mineirao</t>
@@ -5507,6 +6012,11 @@
           <t>Netherlands</t>
         </is>
       </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Play-off for third place</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr">
         <is>
           <t>Estadio Nacional</t>
@@ -5553,6 +6063,11 @@
           <t>Switzerland</t>
         </is>
       </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>First stage - Group E</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr">
         <is>
           <t>Rostov Arena</t>
@@ -5599,6 +6114,11 @@
           <t>Costa Rica</t>
         </is>
       </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>First stage - Group E</t>
+        </is>
+      </c>
       <c r="G105" t="inlineStr">
         <is>
           <t>Saint Petersburg Stadium</t>
@@ -5645,6 +6165,11 @@
           <t>Serbia</t>
         </is>
       </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>First stage - Group E</t>
+        </is>
+      </c>
       <c r="G106" t="inlineStr">
         <is>
           <t>Spartak Stadium</t>
@@ -5691,6 +6216,11 @@
           <t>Mexico</t>
         </is>
       </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Round of 16</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr">
         <is>
           <t>Samara Arena</t>
@@ -5735,6 +6265,11 @@
       <c r="C108" t="inlineStr">
         <is>
           <t>Belgium</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Quarter-finals</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -5780,7 +6315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5808,6 +6343,7440 @@
         <is>
           <t>time</t>
         </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1093</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ivica BEK</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1093</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Aleksandar TIRNANIC</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1093</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PREGUINHO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1091</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MODERATO</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1091</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MODERATO</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1091</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PREGUINHO</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1091</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PREGUINHO</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PERACIO</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PERACIO</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>LEONIDAS</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LEONIDAS</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LEONIDAS</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ROMEU</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ernest WILIMOWSKI</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ernest WILIMOWSKI</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ernest WILIMOWSKI</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ernest WILIMOWSKI</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fryedryk SZERFKE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1152</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>LEONIDAS</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1152</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Oldrich NEJEDLY</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1153</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ROBERTO</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1153</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>LEONIDAS</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1153</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Vlastimil KOPECKY</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1149</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Gino COLAUSSI</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1149</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Giuseppe MEAZZA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1149</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ROMEU</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PERACIO</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>LEONIDAS</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>LEONIDAS</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ROMEU</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Sven JONASSON</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Arne NYBERG</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>4</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>JAIR</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>BALTAZAR</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ADEMIR</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>4</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ADEMIR</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1188</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>BALTAZAR</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1188</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>4</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ALFREDO II</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1188</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>4</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Jackie FATTON</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1188</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>4</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Jackie FATTON</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1191</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>4</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ZIZINHO</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1191</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ADEMIR</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1189</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>4</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CHICO</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1189</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CHICO</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1189</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>4</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MANECA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1189</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>4</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ADEMIR</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1189</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>4</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ADEMIR</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1189</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>4</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ADEMIR</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1189</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>4</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ADEMIR</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1189</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>4</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Sune ANDERSSON</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1186</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>4</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ZIZINHO</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1186</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>4</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>JAIR</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1186</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>4</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CHICO</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1186</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>4</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CHICO</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1186</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>4</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ADEMIR</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1186</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>4</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Silvestre IGOA</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1190</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>4</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Alcides GHIGGIA</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1190</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>4</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Juan SCHIAFFINO</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1190</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>4</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>FRIACA</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1326</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>6</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NILTON SANTOS</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1326</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>6</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Jose ALTAFINI</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1326</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>6</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Jose ALTAFINI</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1344</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>6</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>VAVA</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1344</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>6</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>VAVA</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1345</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>6</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>PELE</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1340</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>6</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>DIDI</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1340</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>6</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PELE</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1340</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>6</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>PELE</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1340</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>6</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>PELE</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1340</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>6</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>VAVA</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1340</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>6</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Just FONTAINE</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1340</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>6</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Roger PIANTONI</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1343</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>6</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Mario ZAGALLO</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1343</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>6</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>PELE</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1343</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>6</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>PELE</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1343</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>6</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>VAVA</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1343</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>6</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>VAVA</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1343</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>6</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Nils LIEDHOLM</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1343</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>6</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Agne SIMONSSON</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1461</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>7</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>PELE</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1461</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>7</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Mario ZAGALLO</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1460</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>7</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>AMARILDO</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1460</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>7</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>AMARILDO</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1460</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>7</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>ADELARDO</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1459</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>7</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>GARRINCHA</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1459</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>7</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>GARRINCHA</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1459</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>7</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>VAVA</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1459</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>7</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Gerry HITCHENS</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1458</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>7</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>GARRINCHA</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>1458</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>7</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>GARRINCHA</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1458</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>7</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>VAVA</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>1458</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>7</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>VAVA</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1458</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>7</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Jorge TORO</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>1458</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>7</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Leonel SANCHEZ</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>1463</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>7</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>ZITO</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1463</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>7</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>VAVA</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>1463</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>7</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>AMARILDO</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>1463</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>7</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Josef MASOPUST</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1596</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>8</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>PELE</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>1596</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>8</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>GARRINCHA</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>1597</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>8</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Kalman MESZOLY</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>1597</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>8</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Ferenc BENE</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1597</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>8</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Janos FARKAS</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>1597</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>8</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>TOSTAO</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>1598</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>8</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ANTONIO SIMOES</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>1598</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>8</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>EUSEBIO (Eusebio da Silva Ferreira)</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>1598</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>8</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>EUSEBIO (Eusebio da Silva Ferreira)</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>1598</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>8</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>RILDO</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>1770</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>9</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>RIVELLINO</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>1770</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>9</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>JAIRZINHO</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>1770</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>9</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>JAIRZINHO</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>1770</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>9</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>PELE</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>1770</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>9</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Ladislav PETRAS</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>1764</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>9</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>JAIRZINHO</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>1769</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>9</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>JAIRZINHO</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>1769</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>9</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>PELE</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>1769</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>9</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>PELE</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>1769</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>9</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Emerich DEMBROVSCHI</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>1769</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>9</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Florea DUMITRACHE</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>1768</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>9</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>TOSTAO</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>1768</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>9</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>TOSTAO</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>1768</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>9</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>RIVELLINO</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>1768</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>9</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>JAIRZINHO</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>1768</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>9</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Teofilo CUBILLAS</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>1768</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>9</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Alberto GALLARDO</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>1771</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>9</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>CLODOALDO</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>1771</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>9</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>RIVELLINO</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>1771</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>9</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>JAIRZINHO</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>1771</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>9</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Luis CUBILLA</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>1765</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>9</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>CARLOS ALBERTO</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="E131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>1765</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>9</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>GERSON</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>1765</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>9</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>JAIRZINHO</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>1765</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>9</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>PELE</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>1765</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>9</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Roberto BONINSEGNA</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>10</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>RIVELLINO</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>10</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>JAIRZINHO</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>10</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>VALDOMIRO</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>10</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>RIVELLINO</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>10</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Miguel BRINDISI</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>10</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>RIVELLINO</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>10</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>JAIRZINHO</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>10</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Johan NEESKENS</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>10</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Johan CRUYFF</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>10</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Grzegorz LATO</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2253</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>11</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Thomas SJOBERG</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2253</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>11</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>REINALDO</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2215</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>11</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>ROBERTO DINAMITE</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2251</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>11</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>DIRCEU</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2251</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>11</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>DIRCEU</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2251</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>11</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>ZICO</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E151" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2252</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>11</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>NELINHO</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2252</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>11</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>ROBERTO DINAMITE</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E153" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2252</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>11</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>ROBERTO DINAMITE</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E154" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2252</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>11</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Grzegorz LATO</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2247</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>11</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>NELINHO</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2247</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>11</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>DIRCEU</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2247</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>11</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Franco CAUSIO</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>12</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>SOCRATES</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E159" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>12</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>EDER</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>12</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Andrei BAL</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>790</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>12</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>790</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>12</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>ZICO</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>790</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>12</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>EDER</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E164" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>790</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>12</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>FALCAO</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E165" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>790</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>12</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>David NAREY</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>12</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>ZICO</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E167" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>12</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>ZICO</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E168" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>12</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>FALCAO</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E169" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>12</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>SERGINHO</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E170" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>12</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Ramon DIAZ</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>12</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>JUNIOR</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E172" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>12</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>ZICO</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E173" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>12</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>SERGINHO</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E174" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>12</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Paolo ROSSI</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>12</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Paolo ROSSI</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>12</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Paolo ROSSI</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>12</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>SOCRATES</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E178" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>12</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>FALCAO</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E179" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>12</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Ramon DIAZ</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>12</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>JUNIOR</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E181" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>12</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>ZICO</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E182" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>12</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>SERGINHO</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E183" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>12</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Paolo ROSSI</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>12</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Paolo ROSSI</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>12</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Paolo ROSSI</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>12</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>SOCRATES</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E187" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>12</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>FALCAO</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E188" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>13</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>SOCRATES</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E189" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>13</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>CARECA</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E190" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>13</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>JOSIMAR</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E191" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>13</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>CARECA</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E192" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>13</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>CARECA</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E193" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>13</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>EDINHO</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E194" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>13</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>JOSIMAR</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E195" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>13</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>SOCRATES</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E196" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>13</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>CARECA</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E197" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>13</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>CARECA</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E198" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>13</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Michel PLATINI</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>14</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>CARECA</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E200" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>14</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>CARECA</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E201" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>14</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Tomas BROLIN</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>14</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>MULLER</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E203" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>14</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>MULLER</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E204" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>14</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>CANIGGIA</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>3057</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>15</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>RAI</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E206" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>3057</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>15</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>ROMARIO</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E207" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>3067</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>15</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>MARCIO SANTOS</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E208" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>3067</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>15</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>BEBETO</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E209" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>3067</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>15</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>ROMARIO</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E210" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>3080</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>15</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>ROMARIO</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E211" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>3080</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>15</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Kennet ANDERSSON</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>3090</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>15</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>BEBETO</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E213" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>3098</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>15</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>WINTER</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E214" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>3098</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>15</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>BERGKAMP</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>3098</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>15</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>BRANCO</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E216" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>3098</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>15</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>BEBETO</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E217" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>3098</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>15</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>ROMARIO</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E218" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>3099</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>15</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>ROMARIO</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E219" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>16</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>C. SAMPAIO</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E220" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>16</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>John COLLINS</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>8742</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>16</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>RONALDO</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E222" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>8742</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>16</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>RIVALDO</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E223" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>8742</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>16</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>BEBETO</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E224" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>8759</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>16</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>BEBETO</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E225" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>8759</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>16</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>REKDAL</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>8759</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>16</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>T.A. FLO</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>8773</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>16</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>C. SAMPAIO</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E228" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>8773</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>16</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>C. SAMPAIO</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E229" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>8773</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>16</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>RONALDO</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E230" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>8773</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>16</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>RONALDO</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E231" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>8773</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>16</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Marcelo SALAS</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>8782</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>16</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>RIVALDO</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E233" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>8782</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>16</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>RIVALDO</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E234" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>8782</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>16</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>BEBETO</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E235" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>8782</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>16</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>LAUDRUP B.</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>8782</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>16</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Martin JORGENSEN</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>8785</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>16</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>RONALDO</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E238" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>8785</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>16</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Patrick KLUIVERT</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>8788</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>16</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>ZIDANE</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>8788</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>16</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>ZIDANE</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E241" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>8788</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>16</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>PETIT</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>43950010</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>17</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>RIVALDO</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E243" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>43950010</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>17</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>RONALDO</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E244" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>43950010</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>17</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>HASAN SAS</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E245" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>43950026</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>17</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>ROBERTO CARLOS</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E246" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>43950026</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>17</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>RIVALDO</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E247" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>43950026</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>17</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>RONALDINHO</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E248" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>43950026</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>17</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>RONALDO</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E249" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>43950041</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>17</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>WANCHOPE P.</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E250" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>43950041</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>17</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>RONALD</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E251" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>43950041</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>17</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>EDMILSON</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E252" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>43950041</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>17</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>JUNIOR</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E253" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>43950041</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>17</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>RIVALDO</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E254" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>43950041</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>17</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>RONALDO</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E255" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>43950041</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>17</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>RONALDO</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E256" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>43950054</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>17</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>RIVALDO</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E257" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>43950054</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>17</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>RONALDO</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E258" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>43950057</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>17</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Michael OWEN</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E259" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>43950057</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>17</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>RIVALDO</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E260" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>43950057</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>17</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>RONALDINHO</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E261" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>43950062</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>17</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>RONALDO</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E262" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>43950064</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>17</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>RONALDO</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E263" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>43950064</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>17</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>RONALDO</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E264" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>97410011</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>18</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Kaká</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E265" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>97410027</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>18</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>ADRIANO</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E266" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>97410027</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>18</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Fred</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E267" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>97410043</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>18</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Keiji TAMADA</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E268" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>97410043</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>18</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>GILBERTO MELO</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E269" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>97410043</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>18</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>JUNINHO</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E270" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>97410043</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>18</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>RONALDO</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E271" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>97410043</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>18</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>RONALDO</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E272" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>97410055</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>18</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>ZÉ ROBERTO</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="E273" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>97410055</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>18</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>ADRIANO</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E274" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>97410055</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>18</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>RONALDO</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E275" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>97410060</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>18</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Thierry Henry</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E276" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>300061490</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>19</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>MAICON</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E277" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>300061490</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>19</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Elano</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E278" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>300061490</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>19</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>J. YUN NAM</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E279" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>300061488</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>19</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Elano</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E280" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>300061488</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>19</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Luis Fabiano</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E281" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>300061488</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>19</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Luis Fabiano</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E282" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>300061488</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>19</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Didier DROGBA</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E283" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>300061500</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>19</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E284" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>300061500</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>19</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Luis Fabiano</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E285" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>300061500</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>19</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Robinho</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E286" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>300061507</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>19</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Wesley SNEIJDER</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E287" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>300061507</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>19</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Wesley SNEIJDER</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E288" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>300061507</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>19</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Robinho</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E289" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>300186456</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>20</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Oscar</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E290" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>300186456</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>20</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>NEYMAR JR</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E291" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>300186456</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>20</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>NEYMAR JR</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E292" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>300186472</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>20</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Matip</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E293" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>300186472</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>20</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Fred</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E294" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>300186472</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>20</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>NEYMAR JR</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E295" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>300186472</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>20</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>NEYMAR JR</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E296" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>300186472</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>20</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>FERNANDINHO</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E297" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>300186487</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>20</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>DAVID LUIZ</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E298" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>300186487</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>20</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Alexis SANCHEZ</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E299" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>300186461</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>20</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>T. SILVA</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E300" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>300186461</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>20</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>DAVID LUIZ</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E301" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>300186461</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>20</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>JAMES</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E302" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>300186474</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>20</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Oscar</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E303" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>300186474</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>20</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>KHEDIRA</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E304" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>300186474</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>20</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Toni KROOS</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E305" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>300186474</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>20</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Toni KROOS</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E306" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>300186474</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>20</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Miroslav Klose</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E307" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>300186474</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>20</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>MÜLLER</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E308" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>300186474</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>20</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>André Schürrle</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E309" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>300186474</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>20</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>André Schürrle</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E310" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>300186502</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>20</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Daley Blind</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E311" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>300186502</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>20</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Georginio Wijnaldum</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E312" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>300186502</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>20</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Robin VAN PERSIE</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E313" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>300331525</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>21</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>P. COUTINHO</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E314" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>300331525</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>21</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>ZUBER</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E315" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>300331540</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>21</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>P. COUTINHO</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E316" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>300331540</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>21</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>NEYMAR JR</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E317" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>300331521</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>21</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>T. SILVA</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E318" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>300331521</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>21</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>PAULINHO</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E319" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>300331535</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>21</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>NEYMAR JR</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E320" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>300331535</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>21</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>FIRMINO</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E321" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>300331538</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>21</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>R. AUGUSTO</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E322" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>300331538</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>21</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>DE BRUYNE</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E323" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>300331538</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>21</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>FERNANDINHO</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E324" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
